--- a/完成进度.xlsx
+++ b/完成进度.xlsx
@@ -4,29 +4,111 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+  <si>
+    <t>chain device</t>
+  </si>
+  <si>
+    <t>固件</t>
+  </si>
+  <si>
+    <t>IAP</t>
+  </si>
+  <si>
+    <t>协议</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Chain Uart</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>keil工程需要迁移STM32cubeIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chain Encoder</t>
+  </si>
+  <si>
+    <t>初稿OK</t>
+  </si>
+  <si>
+    <t>协议结构待进一步整理优化</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chain Angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chain Key</t>
+  </si>
+  <si>
+    <t>Chain Joystick</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>板子待硬件交付</t>
+  </si>
+  <si>
+    <t>Chain ToF</t>
+  </si>
+  <si>
+    <t>Chain DualKey</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -176,12 +258,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -496,55 +584,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,76 +644,88 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -941,14 +1038,155 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="38.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.1583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="49" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/完成进度.xlsx
+++ b/完成进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>chain device</t>
   </si>
@@ -73,19 +73,16 @@
     <t>Chain Joystick</t>
   </si>
   <si>
-    <t>进行中</t>
+    <t>Chain ToF</t>
+  </si>
+  <si>
+    <t>Chain DualKey</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
     <t>板子待硬件交付</t>
-  </si>
-  <si>
-    <t>Chain ToF</t>
-  </si>
-  <si>
-    <t>Chain DualKey</t>
   </si>
 </sst>
 </file>
@@ -1041,13 +1038,13 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="28.1583333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.1061946902655" customWidth="1"/>
+    <col min="5" max="5" width="28.1592920353982" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1139,51 +1136,51 @@
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
